--- a/3-6-19/3.5versA2/ramp rates and steady state.xlsx
+++ b/3-6-19/3.5versA2/ramp rates and steady state.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\313 Project version 2\Project-2-313-master\3.5versA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project-2-313\3-6-19\3.5versA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>DataNum</t>
   </si>
@@ -44,6 +45,12 @@
   </si>
   <si>
     <t>50 seconds - 60 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor2 </t>
+  </si>
+  <si>
+    <t>AvgTemp</t>
   </si>
 </sst>
 </file>
@@ -113,7 +120,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2079,6 +2085,3934 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>25.706199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.694600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.694299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.686900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.662700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.6601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.647600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.648399999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.627500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.6068</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.6128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.627700000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.6677</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.698899999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.727799999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.738700000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.759899999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.760999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.8475</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.902999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.936699999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.977900000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.964700000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.9681</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.978999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26.017900000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26.076599999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26.134599999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.198899999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.238299999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.304600000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.3353</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.38</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.470099999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.494299999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26.534500000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.594100000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.643599999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.694800000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.758299999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26.8065</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26.8459</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.889299999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.905899999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26.947299999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26.983499999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>27.025099999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>27.075800000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>27.1646</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>27.2121</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>27.231200000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27.306899999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27.3367</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27.356100000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>27.3719</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>27.439800000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>27.0182</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>27.047599999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>27.072299999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>27.0809</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>27.316299999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>27.545500000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>27.272400000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>27.367000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>27.386299999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>27.3828</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27.607199999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>27.3523</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>27.302700000000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>27.318999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>27.355899999999998</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>27.562799999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>27.2974</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>27.305900000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>27.380099999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>27.526900000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>27.302900000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>27.354299999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>27.185300000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26.9346</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26.491</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26.323599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7E8-4FFD-B49F-D063C51B21B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>25.544599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.535699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.535499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.529699999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.511199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.5091</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.499500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.5001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.484000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.468</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.4727</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.484100000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.539000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.561299999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.569700000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.58</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.5869</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.608499999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.653500000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.696400000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.722300000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.754100000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.7439</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.746500000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.754899999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.7849</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.830100000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.8748</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25.924299999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.954699999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.005800000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.029399999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.063800000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.133099999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.151800000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26.1828</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.2287</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.2667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.3062</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.355</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26.392099999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26.4224</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.4558</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.468599999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26.500499999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26.528300000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>26.560300000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26.599299999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>26.6676</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26.7041</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.718800000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26.777000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>26.814900000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>26.827100000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>26.879200000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26.555</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>26.5776</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>26.596599999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>26.603200000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>26.784300000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>26.9605</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26.750499999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>26.8232</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>26.838100000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>26.8354</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27.007899999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>26.811900000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>26.773800000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>26.7864</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>26.814800000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>26.973800000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>26.7698</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>26.776299999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>26.833300000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>26.946200000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>26.774000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>26.813500000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>26.683499999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26.4907</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26.1492</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26.020299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D7E8-4FFD-B49F-D063C51B21B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>25.602499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.592600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.592400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.5655</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.563199999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.552600000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.5532</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.535399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.517800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.5229</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.535599999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.569700000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.596299999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.620999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.630299999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.648299999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.6416</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.6493</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.673200000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.722999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.770399999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.799199999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.834299999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.823</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.825900000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.8352</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.868400000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.918399999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.9679</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.0227</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.0563</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.1128</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.177099999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.253799999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.2745</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26.308800000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.3596</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.401700000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.445399999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.499500000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26.540600000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26.574100000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.6111</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.6252</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26.660499999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26.691299999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>26.726700000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26.7699</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>26.845600000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26.885999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.9023</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26.966799999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>26.9922</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27.008700000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>27.022200000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>27.08</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26.7209</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>26.745999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>26.7669</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>26.7743</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>26.974799999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>27.169899999999998</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26.9374</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>27.017900000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>27.034400000000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>27.031400000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27.2225</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>27.005400000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>26.963200000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>26.9771</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>27.008500000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>27.184699999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>26.9587</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>26.965900000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>27.0291</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>27.1541</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>26.9634</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>27.007200000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>26.863199999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26.649699999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26.271599999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26.129000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D7E8-4FFD-B49F-D063C51B21B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$E$2:$E$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>25.617699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.607600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.607399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.6008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.579799999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.577400000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.566500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.5672</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.5489</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.530799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.536100000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.549099999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.584099999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.6114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.636700000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.6462</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.6647</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.657800000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.665700000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.690200000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.741299999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.789899999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.819400000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.855399999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.843800000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.846800000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.856300000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.8904</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.941700000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.9924</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.0486</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.083100000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.140999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.167899999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.206900000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.285599999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.306799999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26.341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.394100000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.4373</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.482099999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.537600000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26.579699999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26.614100000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.652000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.666499999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26.7027</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26.734300000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>26.770700000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26.815000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>26.892600000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26.934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.950700000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27.0169</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27.042899999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27.059899999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>27.073699999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>27.132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26.764700000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>26.790400000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>26.811900000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>26.819400000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>27.025099999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>27.225300000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26.986699999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>27.069299999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>27.086200000000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>27.083200000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27.279199999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>27.0565</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>27.013200000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>27.0275</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>27.059699999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>27.240400000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>27.008600000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>27.015999999999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>27.0808</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>27.209</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>27.013400000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>27.058299999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>26.910599999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26.691600000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26.303899999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26.157599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D7E8-4FFD-B49F-D063C51B21B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="810544272"/>
+        <c:axId val="810547880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="810544272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="810547880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="810547880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="810544272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$270</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="269"/>
+                <c:pt idx="0">
+                  <c:v>25.706199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.694600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.694299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.686900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.662700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.6601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.647600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.648399999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.627500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.6068</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.6128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.627700000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.6677</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.698899999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.727799999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.738700000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.759899999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.760999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.8475</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.902999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.936699999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.977900000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.964700000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.9681</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.978999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26.017900000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26.076599999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26.134599999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.198899999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.238299999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.304600000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.3353</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.38</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.470099999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.494299999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26.534500000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.594100000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.643599999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.694800000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.758299999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26.8065</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26.8459</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.889299999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.905899999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26.947299999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26.983499999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>27.025099999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>27.075800000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>27.1646</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>27.2121</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>27.231200000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27.306899999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27.3367</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27.356100000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>27.3719</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>27.439800000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>27.0182</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>27.047599999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>27.072299999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>27.0809</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>27.316299999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>27.545500000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>27.272400000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>27.367000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>27.386299999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>27.3828</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27.607199999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>27.3523</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>27.302700000000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>27.318999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>27.355899999999998</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>27.562799999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>27.2974</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>27.305900000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>27.380099999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>27.526900000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>27.302900000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>27.354299999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>27.185300000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26.9346</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26.491</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26.323599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FA9-4D46-9759-41480D4A0D8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$271</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="270"/>
+                <c:pt idx="0">
+                  <c:v>25.544599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.535699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.535499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.529699999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.511199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.5091</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.499500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.5001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.484000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.468</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.4727</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.484100000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.539000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.561299999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.569700000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.58</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.5869</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.608499999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.653500000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.696400000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.722300000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.754100000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.7439</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.746500000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.754899999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.7849</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.830100000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.8748</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25.924299999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.954699999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.005800000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.029399999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.063800000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.133099999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.151800000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26.1828</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.2287</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.2667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.3062</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.355</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26.392099999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26.4224</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.4558</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.468599999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26.500499999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26.528300000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>26.560300000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26.599299999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>26.6676</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26.7041</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.718800000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26.777000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>26.814900000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>26.827100000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>26.879200000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26.555</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>26.5776</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>26.596599999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>26.603200000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>26.784300000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>26.9605</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26.750499999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>26.8232</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>26.838100000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>26.8354</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27.007899999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>26.811900000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>26.773800000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>26.7864</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>26.814800000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>26.973800000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>26.7698</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>26.776299999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>26.833300000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>26.946200000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>26.774000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>26.813500000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>26.683499999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26.4907</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26.1492</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26.020299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9FA9-4D46-9759-41480D4A0D8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$271</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="270"/>
+                <c:pt idx="0">
+                  <c:v>25.602499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.592600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.592400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.5655</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.563199999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.552600000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.5532</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.535399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.517800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.5229</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.535599999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.569700000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.596299999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.620999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.630299999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.648299999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.6416</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.6493</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.673200000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.722999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.770399999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.799199999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.834299999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.823</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.825900000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.8352</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.868400000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.918399999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.9679</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.0227</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.0563</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.1128</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.177099999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.253799999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.2745</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26.308800000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.3596</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.401700000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.445399999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.499500000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26.540600000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26.574100000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.6111</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.6252</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26.660499999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26.691299999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>26.726700000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26.7699</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>26.845600000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26.885999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.9023</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26.966799999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>26.9922</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27.008700000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>27.022200000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>27.08</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26.7209</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>26.745999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>26.7669</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>26.7743</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>26.974799999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>27.169899999999998</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26.9374</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>27.017900000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>27.034400000000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>27.031400000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27.2225</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>27.005400000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>26.963200000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>26.9771</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>27.008500000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>27.184699999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>26.9587</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>26.965900000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>27.0291</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>27.1541</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>26.9634</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>27.007200000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>26.863199999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26.649699999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26.271599999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26.129000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9FA9-4D46-9759-41480D4A0D8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$E$2:$E$271</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="270"/>
+                <c:pt idx="0">
+                  <c:v>25.617699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.607600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.607399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.6008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.579799999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.577400000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.566500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.5672</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.5489</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.530799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.536100000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.549099999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.584099999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.6114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.636700000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.6462</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.6647</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.657800000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.665700000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.690200000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.741299999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.789899999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.819400000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.855399999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.843800000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.846800000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.856300000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.8904</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.941700000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.9924</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.0486</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.083100000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.140999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.167899999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.206900000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.285599999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.306799999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26.341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.394100000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.4373</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.482099999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.537600000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26.579699999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26.614100000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.652000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.666499999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26.7027</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26.734300000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>26.770700000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26.815000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>26.892600000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26.934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.950700000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27.0169</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27.042899999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27.059899999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>27.073699999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>27.132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26.764700000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>26.790400000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>26.811900000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>26.819400000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>27.025099999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>27.225300000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26.986699999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>27.069299999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>27.086200000000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>27.083200000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27.279199999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>27.0565</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>27.013200000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>27.0275</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>27.059699999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>27.240400000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>27.008600000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>27.015999999999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>27.0808</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>27.209</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>27.013400000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>27.058299999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>26.910599999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26.691600000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26.303899999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26.157599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9FA9-4D46-9759-41480D4A0D8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="807258408"/>
+        <c:axId val="807264968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="807258408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807264968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="807264968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807258408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2186,7 +6120,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4211,7 +8144,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4318,7 +8250,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8035,7 +11966,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8142,7 +12072,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12160,7 +16089,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12267,7 +16195,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14306,7 +18233,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14388,7 +18314,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15735,7 +19660,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16765,6 +20689,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17086,6 +21090,1038 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22020,6 +27056,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -30896,7 +35997,7 @@
     </row>
     <row r="317" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AC317">
-        <f t="shared" ref="AC289:AC351" si="0">IF(0,"",AC315+0.5)</f>
+        <f t="shared" ref="AC317:AC351" si="0">IF(0,"",AC315+0.5)</f>
         <v>0.5</v>
       </c>
       <c r="AD317">
@@ -31235,7 +36336,7 @@
     </row>
     <row r="353" spans="29:33" x14ac:dyDescent="0.25">
       <c r="AC353">
-        <f t="shared" ref="AC352:AC632" si="1">IF(0,"",AC351+0.5)</f>
+        <f t="shared" ref="AC353:AC631" si="1">IF(0,"",AC351+0.5)</f>
         <v>9.5</v>
       </c>
       <c r="AD353">
@@ -34785,8 +39886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35879,4 +40980,1465 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>25.706199999999999</v>
+      </c>
+      <c r="C2">
+        <v>25.544599999999999</v>
+      </c>
+      <c r="D2">
+        <v>25.602499999999999</v>
+      </c>
+      <c r="E2">
+        <v>25.617699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>25.694600000000001</v>
+      </c>
+      <c r="C4">
+        <v>25.535699999999999</v>
+      </c>
+      <c r="D4">
+        <v>25.592600000000001</v>
+      </c>
+      <c r="E4">
+        <v>25.607600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>25.694299999999998</v>
+      </c>
+      <c r="C6">
+        <v>25.535499999999999</v>
+      </c>
+      <c r="D6">
+        <v>25.592400000000001</v>
+      </c>
+      <c r="E6">
+        <v>25.607399999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>25.686900000000001</v>
+      </c>
+      <c r="C8">
+        <v>25.529699999999998</v>
+      </c>
+      <c r="D8">
+        <v>25.585999999999999</v>
+      </c>
+      <c r="E8">
+        <v>25.6008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.5</v>
+      </c>
+      <c r="B10">
+        <v>25.662700000000001</v>
+      </c>
+      <c r="C10">
+        <v>25.511199999999999</v>
+      </c>
+      <c r="D10">
+        <v>25.5655</v>
+      </c>
+      <c r="E10">
+        <v>25.579799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>25.6601</v>
+      </c>
+      <c r="C12">
+        <v>25.5091</v>
+      </c>
+      <c r="D12">
+        <v>25.563199999999998</v>
+      </c>
+      <c r="E12">
+        <v>25.577400000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3.5</v>
+      </c>
+      <c r="B14">
+        <v>25.647600000000001</v>
+      </c>
+      <c r="C14">
+        <v>25.499500000000001</v>
+      </c>
+      <c r="D14">
+        <v>25.552600000000002</v>
+      </c>
+      <c r="E14">
+        <v>25.566500000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>25.648399999999999</v>
+      </c>
+      <c r="C16">
+        <v>25.5001</v>
+      </c>
+      <c r="D16">
+        <v>25.5532</v>
+      </c>
+      <c r="E16">
+        <v>25.5672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4.5</v>
+      </c>
+      <c r="B18">
+        <v>25.627500000000001</v>
+      </c>
+      <c r="C18">
+        <v>25.484000000000002</v>
+      </c>
+      <c r="D18">
+        <v>25.535399999999999</v>
+      </c>
+      <c r="E18">
+        <v>25.5489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>25.6068</v>
+      </c>
+      <c r="C20">
+        <v>25.468</v>
+      </c>
+      <c r="D20">
+        <v>25.517800000000001</v>
+      </c>
+      <c r="E20">
+        <v>25.530799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5.5</v>
+      </c>
+      <c r="B22">
+        <v>25.6128</v>
+      </c>
+      <c r="C22">
+        <v>25.4727</v>
+      </c>
+      <c r="D22">
+        <v>25.5229</v>
+      </c>
+      <c r="E22">
+        <v>25.536100000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="C24">
+        <v>25.484100000000002</v>
+      </c>
+      <c r="D24">
+        <v>25.535599999999999</v>
+      </c>
+      <c r="E24">
+        <v>25.549099999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6.5</v>
+      </c>
+      <c r="B26">
+        <v>25.6677</v>
+      </c>
+      <c r="C26">
+        <v>25.515000000000001</v>
+      </c>
+      <c r="D26">
+        <v>25.569700000000001</v>
+      </c>
+      <c r="E26">
+        <v>25.584099999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>25.698899999999998</v>
+      </c>
+      <c r="C28">
+        <v>25.539000000000001</v>
+      </c>
+      <c r="D28">
+        <v>25.596299999999999</v>
+      </c>
+      <c r="E28">
+        <v>25.6114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7.5</v>
+      </c>
+      <c r="B30">
+        <v>25.727799999999998</v>
+      </c>
+      <c r="C30">
+        <v>25.561299999999999</v>
+      </c>
+      <c r="D30">
+        <v>25.620999999999999</v>
+      </c>
+      <c r="E30">
+        <v>25.636700000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>25.738700000000001</v>
+      </c>
+      <c r="C32">
+        <v>25.569700000000001</v>
+      </c>
+      <c r="D32">
+        <v>25.630299999999998</v>
+      </c>
+      <c r="E32">
+        <v>25.6462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8.5</v>
+      </c>
+      <c r="B34">
+        <v>25.759899999999998</v>
+      </c>
+      <c r="C34">
+        <v>25.585999999999999</v>
+      </c>
+      <c r="D34">
+        <v>25.648299999999999</v>
+      </c>
+      <c r="E34">
+        <v>25.6647</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>25.751999999999999</v>
+      </c>
+      <c r="C36">
+        <v>25.58</v>
+      </c>
+      <c r="D36">
+        <v>25.6416</v>
+      </c>
+      <c r="E36">
+        <v>25.657800000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9.5</v>
+      </c>
+      <c r="B38">
+        <v>25.760999999999999</v>
+      </c>
+      <c r="C38">
+        <v>25.5869</v>
+      </c>
+      <c r="D38">
+        <v>25.6493</v>
+      </c>
+      <c r="E38">
+        <v>25.665700000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>25.789000000000001</v>
+      </c>
+      <c r="C40">
+        <v>25.608499999999999</v>
+      </c>
+      <c r="D40">
+        <v>25.673200000000001</v>
+      </c>
+      <c r="E40">
+        <v>25.690200000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10.5</v>
+      </c>
+      <c r="B42">
+        <v>25.8475</v>
+      </c>
+      <c r="C42">
+        <v>25.653500000000001</v>
+      </c>
+      <c r="D42">
+        <v>25.722999999999999</v>
+      </c>
+      <c r="E42">
+        <v>25.741299999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>25.902999999999999</v>
+      </c>
+      <c r="C44">
+        <v>25.696400000000001</v>
+      </c>
+      <c r="D44">
+        <v>25.770399999999999</v>
+      </c>
+      <c r="E44">
+        <v>25.789899999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11.5</v>
+      </c>
+      <c r="B46">
+        <v>25.936699999999998</v>
+      </c>
+      <c r="C46">
+        <v>25.722300000000001</v>
+      </c>
+      <c r="D46">
+        <v>25.799199999999999</v>
+      </c>
+      <c r="E46">
+        <v>25.819400000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>25.977900000000002</v>
+      </c>
+      <c r="C48">
+        <v>25.754100000000001</v>
+      </c>
+      <c r="D48">
+        <v>25.834299999999999</v>
+      </c>
+      <c r="E48">
+        <v>25.855399999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12.5</v>
+      </c>
+      <c r="B50">
+        <v>25.964700000000001</v>
+      </c>
+      <c r="C50">
+        <v>25.7439</v>
+      </c>
+      <c r="D50">
+        <v>25.823</v>
+      </c>
+      <c r="E50">
+        <v>25.843800000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>25.9681</v>
+      </c>
+      <c r="C52">
+        <v>25.746500000000001</v>
+      </c>
+      <c r="D52">
+        <v>25.825900000000001</v>
+      </c>
+      <c r="E52">
+        <v>25.846800000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>13.5</v>
+      </c>
+      <c r="B54">
+        <v>25.978999999999999</v>
+      </c>
+      <c r="C54">
+        <v>25.754899999999999</v>
+      </c>
+      <c r="D54">
+        <v>25.8352</v>
+      </c>
+      <c r="E54">
+        <v>25.856300000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>26.017900000000001</v>
+      </c>
+      <c r="C56">
+        <v>25.7849</v>
+      </c>
+      <c r="D56">
+        <v>25.868400000000001</v>
+      </c>
+      <c r="E56">
+        <v>25.8904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>14.5</v>
+      </c>
+      <c r="B58">
+        <v>26.076599999999999</v>
+      </c>
+      <c r="C58">
+        <v>25.830100000000002</v>
+      </c>
+      <c r="D58">
+        <v>25.918399999999998</v>
+      </c>
+      <c r="E58">
+        <v>25.941700000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>26.134599999999999</v>
+      </c>
+      <c r="C60">
+        <v>25.8748</v>
+      </c>
+      <c r="D60">
+        <v>25.9679</v>
+      </c>
+      <c r="E60">
+        <v>25.9924</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>15.5</v>
+      </c>
+      <c r="B62">
+        <v>26.198899999999998</v>
+      </c>
+      <c r="C62">
+        <v>25.924299999999999</v>
+      </c>
+      <c r="D62">
+        <v>26.0227</v>
+      </c>
+      <c r="E62">
+        <v>26.0486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>26.238299999999999</v>
+      </c>
+      <c r="C64">
+        <v>25.954699999999999</v>
+      </c>
+      <c r="D64">
+        <v>26.0563</v>
+      </c>
+      <c r="E64">
+        <v>26.083100000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>16.5</v>
+      </c>
+      <c r="B66">
+        <v>26.304600000000001</v>
+      </c>
+      <c r="C66">
+        <v>26.005800000000001</v>
+      </c>
+      <c r="D66">
+        <v>26.1128</v>
+      </c>
+      <c r="E66">
+        <v>26.140999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>17</v>
+      </c>
+      <c r="B68">
+        <v>26.3353</v>
+      </c>
+      <c r="C68">
+        <v>26.029399999999999</v>
+      </c>
+      <c r="D68">
+        <v>26.138999999999999</v>
+      </c>
+      <c r="E68">
+        <v>26.167899999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>17.5</v>
+      </c>
+      <c r="B70">
+        <v>26.38</v>
+      </c>
+      <c r="C70">
+        <v>26.063800000000001</v>
+      </c>
+      <c r="D70">
+        <v>26.177099999999999</v>
+      </c>
+      <c r="E70">
+        <v>26.206900000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>26.470099999999999</v>
+      </c>
+      <c r="C72">
+        <v>26.133099999999999</v>
+      </c>
+      <c r="D72">
+        <v>26.253799999999998</v>
+      </c>
+      <c r="E72">
+        <v>26.285599999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>18.5</v>
+      </c>
+      <c r="B74">
+        <v>26.494299999999999</v>
+      </c>
+      <c r="C74">
+        <v>26.151800000000001</v>
+      </c>
+      <c r="D74">
+        <v>26.2745</v>
+      </c>
+      <c r="E74">
+        <v>26.306799999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>19</v>
+      </c>
+      <c r="B76">
+        <v>26.534500000000001</v>
+      </c>
+      <c r="C76">
+        <v>26.1828</v>
+      </c>
+      <c r="D76">
+        <v>26.308800000000002</v>
+      </c>
+      <c r="E76">
+        <v>26.341999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>19.5</v>
+      </c>
+      <c r="B78">
+        <v>26.594100000000001</v>
+      </c>
+      <c r="C78">
+        <v>26.2287</v>
+      </c>
+      <c r="D78">
+        <v>26.3596</v>
+      </c>
+      <c r="E78">
+        <v>26.394100000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>20</v>
+      </c>
+      <c r="B80">
+        <v>26.643599999999999</v>
+      </c>
+      <c r="C80">
+        <v>26.2667</v>
+      </c>
+      <c r="D80">
+        <v>26.401700000000002</v>
+      </c>
+      <c r="E80">
+        <v>26.4373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>20.5</v>
+      </c>
+      <c r="B82">
+        <v>26.694800000000001</v>
+      </c>
+      <c r="C82">
+        <v>26.3062</v>
+      </c>
+      <c r="D82">
+        <v>26.445399999999999</v>
+      </c>
+      <c r="E82">
+        <v>26.482099999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>21</v>
+      </c>
+      <c r="B84">
+        <v>26.758299999999998</v>
+      </c>
+      <c r="C84">
+        <v>26.355</v>
+      </c>
+      <c r="D84">
+        <v>26.499500000000001</v>
+      </c>
+      <c r="E84">
+        <v>26.537600000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>21.5</v>
+      </c>
+      <c r="B86">
+        <v>26.8065</v>
+      </c>
+      <c r="C86">
+        <v>26.392099999999999</v>
+      </c>
+      <c r="D86">
+        <v>26.540600000000001</v>
+      </c>
+      <c r="E86">
+        <v>26.579699999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>22</v>
+      </c>
+      <c r="B88">
+        <v>26.8459</v>
+      </c>
+      <c r="C88">
+        <v>26.4224</v>
+      </c>
+      <c r="D88">
+        <v>26.574100000000001</v>
+      </c>
+      <c r="E88">
+        <v>26.614100000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>22.5</v>
+      </c>
+      <c r="B90">
+        <v>26.889299999999999</v>
+      </c>
+      <c r="C90">
+        <v>26.4558</v>
+      </c>
+      <c r="D90">
+        <v>26.6111</v>
+      </c>
+      <c r="E90">
+        <v>26.652000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>23</v>
+      </c>
+      <c r="B92">
+        <v>26.905899999999999</v>
+      </c>
+      <c r="C92">
+        <v>26.468599999999999</v>
+      </c>
+      <c r="D92">
+        <v>26.6252</v>
+      </c>
+      <c r="E92">
+        <v>26.666499999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>23.5</v>
+      </c>
+      <c r="B94">
+        <v>26.947299999999998</v>
+      </c>
+      <c r="C94">
+        <v>26.500499999999999</v>
+      </c>
+      <c r="D94">
+        <v>26.660499999999999</v>
+      </c>
+      <c r="E94">
+        <v>26.7027</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>24</v>
+      </c>
+      <c r="B96">
+        <v>26.983499999999999</v>
+      </c>
+      <c r="C96">
+        <v>26.528300000000002</v>
+      </c>
+      <c r="D96">
+        <v>26.691299999999998</v>
+      </c>
+      <c r="E96">
+        <v>26.734300000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>24.5</v>
+      </c>
+      <c r="B98">
+        <v>27.025099999999998</v>
+      </c>
+      <c r="C98">
+        <v>26.560300000000002</v>
+      </c>
+      <c r="D98">
+        <v>26.726700000000001</v>
+      </c>
+      <c r="E98">
+        <v>26.770700000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>25</v>
+      </c>
+      <c r="B100">
+        <v>27.075800000000001</v>
+      </c>
+      <c r="C100">
+        <v>26.599299999999999</v>
+      </c>
+      <c r="D100">
+        <v>26.7699</v>
+      </c>
+      <c r="E100">
+        <v>26.815000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>25.5</v>
+      </c>
+      <c r="B102">
+        <v>27.1646</v>
+      </c>
+      <c r="C102">
+        <v>26.6676</v>
+      </c>
+      <c r="D102">
+        <v>26.845600000000001</v>
+      </c>
+      <c r="E102">
+        <v>26.892600000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>26</v>
+      </c>
+      <c r="B104">
+        <v>27.2121</v>
+      </c>
+      <c r="C104">
+        <v>26.7041</v>
+      </c>
+      <c r="D104">
+        <v>26.885999999999999</v>
+      </c>
+      <c r="E104">
+        <v>26.934000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>26.5</v>
+      </c>
+      <c r="B106">
+        <v>27.231200000000001</v>
+      </c>
+      <c r="C106">
+        <v>26.718800000000002</v>
+      </c>
+      <c r="D106">
+        <v>26.9023</v>
+      </c>
+      <c r="E106">
+        <v>26.950700000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>27</v>
+      </c>
+      <c r="B108">
+        <v>27.306899999999999</v>
+      </c>
+      <c r="C108">
+        <v>26.777000000000001</v>
+      </c>
+      <c r="D108">
+        <v>26.966799999999999</v>
+      </c>
+      <c r="E108">
+        <v>27.0169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>27.5</v>
+      </c>
+      <c r="B110">
+        <v>27.3367</v>
+      </c>
+      <c r="C110">
+        <v>26.8</v>
+      </c>
+      <c r="D110">
+        <v>26.9922</v>
+      </c>
+      <c r="E110">
+        <v>27.042899999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>28</v>
+      </c>
+      <c r="B112">
+        <v>27.356100000000001</v>
+      </c>
+      <c r="C112">
+        <v>26.814900000000002</v>
+      </c>
+      <c r="D112">
+        <v>27.008700000000001</v>
+      </c>
+      <c r="E112">
+        <v>27.059899999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>28.5</v>
+      </c>
+      <c r="B114">
+        <v>27.3719</v>
+      </c>
+      <c r="C114">
+        <v>26.827100000000002</v>
+      </c>
+      <c r="D114">
+        <v>27.022200000000002</v>
+      </c>
+      <c r="E114">
+        <v>27.073699999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>29</v>
+      </c>
+      <c r="B116">
+        <v>27.439800000000002</v>
+      </c>
+      <c r="C116">
+        <v>26.879200000000001</v>
+      </c>
+      <c r="D116">
+        <v>27.08</v>
+      </c>
+      <c r="E116">
+        <v>27.132999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>29.5</v>
+      </c>
+      <c r="B118">
+        <v>27.0182</v>
+      </c>
+      <c r="C118">
+        <v>26.555</v>
+      </c>
+      <c r="D118">
+        <v>26.7209</v>
+      </c>
+      <c r="E118">
+        <v>26.764700000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>30</v>
+      </c>
+      <c r="B120">
+        <v>27.047599999999999</v>
+      </c>
+      <c r="C120">
+        <v>26.5776</v>
+      </c>
+      <c r="D120">
+        <v>26.745999999999999</v>
+      </c>
+      <c r="E120">
+        <v>26.790400000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>30.5</v>
+      </c>
+      <c r="B122">
+        <v>27.072299999999998</v>
+      </c>
+      <c r="C122">
+        <v>26.596599999999999</v>
+      </c>
+      <c r="D122">
+        <v>26.7669</v>
+      </c>
+      <c r="E122">
+        <v>26.811900000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>31</v>
+      </c>
+      <c r="B124">
+        <v>27.0809</v>
+      </c>
+      <c r="C124">
+        <v>26.603200000000001</v>
+      </c>
+      <c r="D124">
+        <v>26.7743</v>
+      </c>
+      <c r="E124">
+        <v>26.819400000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>31.5</v>
+      </c>
+      <c r="B126">
+        <v>27.316299999999998</v>
+      </c>
+      <c r="C126">
+        <v>26.784300000000002</v>
+      </c>
+      <c r="D126">
+        <v>26.974799999999998</v>
+      </c>
+      <c r="E126">
+        <v>27.025099999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>32</v>
+      </c>
+      <c r="B128">
+        <v>27.545500000000001</v>
+      </c>
+      <c r="C128">
+        <v>26.9605</v>
+      </c>
+      <c r="D128">
+        <v>27.169899999999998</v>
+      </c>
+      <c r="E128">
+        <v>27.225300000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>32.5</v>
+      </c>
+      <c r="B130">
+        <v>27.272400000000001</v>
+      </c>
+      <c r="C130">
+        <v>26.750499999999999</v>
+      </c>
+      <c r="D130">
+        <v>26.9374</v>
+      </c>
+      <c r="E130">
+        <v>26.986699999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>33</v>
+      </c>
+      <c r="B132">
+        <v>27.367000000000001</v>
+      </c>
+      <c r="C132">
+        <v>26.8232</v>
+      </c>
+      <c r="D132">
+        <v>27.017900000000001</v>
+      </c>
+      <c r="E132">
+        <v>27.069299999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>33.5</v>
+      </c>
+      <c r="B134">
+        <v>27.386299999999999</v>
+      </c>
+      <c r="C134">
+        <v>26.838100000000001</v>
+      </c>
+      <c r="D134">
+        <v>27.034400000000002</v>
+      </c>
+      <c r="E134">
+        <v>27.086200000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>34</v>
+      </c>
+      <c r="B136">
+        <v>27.3828</v>
+      </c>
+      <c r="C136">
+        <v>26.8354</v>
+      </c>
+      <c r="D136">
+        <v>27.031400000000001</v>
+      </c>
+      <c r="E136">
+        <v>27.083200000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>34.5</v>
+      </c>
+      <c r="B138">
+        <v>27.607199999999999</v>
+      </c>
+      <c r="C138">
+        <v>27.007899999999999</v>
+      </c>
+      <c r="D138">
+        <v>27.2225</v>
+      </c>
+      <c r="E138">
+        <v>27.279199999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>35</v>
+      </c>
+      <c r="B140">
+        <v>27.3523</v>
+      </c>
+      <c r="C140">
+        <v>26.811900000000001</v>
+      </c>
+      <c r="D140">
+        <v>27.005400000000002</v>
+      </c>
+      <c r="E140">
+        <v>27.0565</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>35.5</v>
+      </c>
+      <c r="B142">
+        <v>27.302700000000002</v>
+      </c>
+      <c r="C142">
+        <v>26.773800000000001</v>
+      </c>
+      <c r="D142">
+        <v>26.963200000000001</v>
+      </c>
+      <c r="E142">
+        <v>27.013200000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>36</v>
+      </c>
+      <c r="B144">
+        <v>27.318999999999999</v>
+      </c>
+      <c r="C144">
+        <v>26.7864</v>
+      </c>
+      <c r="D144">
+        <v>26.9771</v>
+      </c>
+      <c r="E144">
+        <v>27.0275</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>36.5</v>
+      </c>
+      <c r="B146">
+        <v>27.355899999999998</v>
+      </c>
+      <c r="C146">
+        <v>26.814800000000002</v>
+      </c>
+      <c r="D146">
+        <v>27.008500000000002</v>
+      </c>
+      <c r="E146">
+        <v>27.059699999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>37</v>
+      </c>
+      <c r="B148">
+        <v>27.562799999999999</v>
+      </c>
+      <c r="C148">
+        <v>26.973800000000001</v>
+      </c>
+      <c r="D148">
+        <v>27.184699999999999</v>
+      </c>
+      <c r="E148">
+        <v>27.240400000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>37.5</v>
+      </c>
+      <c r="B150">
+        <v>27.2974</v>
+      </c>
+      <c r="C150">
+        <v>26.7698</v>
+      </c>
+      <c r="D150">
+        <v>26.9587</v>
+      </c>
+      <c r="E150">
+        <v>27.008600000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>38</v>
+      </c>
+      <c r="B152">
+        <v>27.305900000000001</v>
+      </c>
+      <c r="C152">
+        <v>26.776299999999999</v>
+      </c>
+      <c r="D152">
+        <v>26.965900000000001</v>
+      </c>
+      <c r="E152">
+        <v>27.015999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>38.5</v>
+      </c>
+      <c r="B154">
+        <v>27.380099999999999</v>
+      </c>
+      <c r="C154">
+        <v>26.833300000000001</v>
+      </c>
+      <c r="D154">
+        <v>27.0291</v>
+      </c>
+      <c r="E154">
+        <v>27.0808</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>39</v>
+      </c>
+      <c r="B156">
+        <v>27.526900000000001</v>
+      </c>
+      <c r="C156">
+        <v>26.946200000000001</v>
+      </c>
+      <c r="D156">
+        <v>27.1541</v>
+      </c>
+      <c r="E156">
+        <v>27.209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>39.5</v>
+      </c>
+      <c r="B158">
+        <v>27.302900000000001</v>
+      </c>
+      <c r="C158">
+        <v>26.774000000000001</v>
+      </c>
+      <c r="D158">
+        <v>26.9634</v>
+      </c>
+      <c r="E158">
+        <v>27.013400000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>40</v>
+      </c>
+      <c r="B160">
+        <v>27.354299999999999</v>
+      </c>
+      <c r="C160">
+        <v>26.813500000000001</v>
+      </c>
+      <c r="D160">
+        <v>27.007200000000001</v>
+      </c>
+      <c r="E160">
+        <v>27.058299999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>40.5</v>
+      </c>
+      <c r="B162">
+        <v>27.185300000000002</v>
+      </c>
+      <c r="C162">
+        <v>26.683499999999999</v>
+      </c>
+      <c r="D162">
+        <v>26.863199999999999</v>
+      </c>
+      <c r="E162">
+        <v>26.910599999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>41</v>
+      </c>
+      <c r="B164">
+        <v>26.9346</v>
+      </c>
+      <c r="C164">
+        <v>26.4907</v>
+      </c>
+      <c r="D164">
+        <v>26.649699999999999</v>
+      </c>
+      <c r="E164">
+        <v>26.691600000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>41.5</v>
+      </c>
+      <c r="B166">
+        <v>26.491</v>
+      </c>
+      <c r="C166">
+        <v>26.1492</v>
+      </c>
+      <c r="D166">
+        <v>26.271599999999999</v>
+      </c>
+      <c r="E166">
+        <v>26.303899999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>42</v>
+      </c>
+      <c r="B168">
+        <v>26.323599999999999</v>
+      </c>
+      <c r="C168">
+        <v>26.020299999999999</v>
+      </c>
+      <c r="D168">
+        <v>26.129000000000001</v>
+      </c>
+      <c r="E168">
+        <v>26.157599999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>